--- a/Resources/加扣分違規表樣板.xlsx
+++ b/Resources/加扣分違規表樣板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\小金\Documents\github_ischool\MOD_Discipline.Competition\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub_ischoolInc\MOD_Discipline.Competition\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一年級" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>第9週生活教育競賽違規加扣分項目表</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -472,9 +476,10 @@
     <col min="4" max="4" width="23" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -482,9 +487,10 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -503,18 +509,22 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -523,22 +533,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -546,9 +557,10 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,18 +579,22 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,23 +603,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="40.25" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -611,9 +628,10 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,18 +650,22 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
